--- a/ID 75 Matriz de pruebas unitarias.xlsx
+++ b/ID 75 Matriz de pruebas unitarias.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Trabajo Infonavit Ultra\Codigo Infornavit\SGBF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA36E8E2-FC3C-4EAA-99E8-0EA7751F3062}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8E3EEA4-3AA6-4BE5-AE38-5ADCD2FFE341}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1151,6 +1151,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1232,6 +1239,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1262,25 +1281,6 @@
     <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
@@ -1565,8 +1565,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16:D16"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1584,106 +1584,106 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="49"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="52"/>
     </row>
     <row r="2" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="57">
+      <c r="C2" s="59"/>
+      <c r="D2" s="60">
         <v>45575</v>
       </c>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="59"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="62"/>
     </row>
     <row r="3" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="56"/>
-      <c r="D3" s="58" t="s">
+      <c r="C3" s="59"/>
+      <c r="D3" s="61" t="s">
         <v>69</v>
       </c>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="58"/>
-      <c r="I3" s="59"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="62"/>
     </row>
     <row r="4" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="55" t="s">
+      <c r="B4" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="56"/>
-      <c r="D4" s="58" t="s">
+      <c r="C4" s="59"/>
+      <c r="D4" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="59"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="62"/>
     </row>
     <row r="5" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="60" t="s">
+      <c r="B5" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="61"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="63"/>
-      <c r="H5" s="63"/>
-      <c r="I5" s="64"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="66"/>
+      <c r="G5" s="66"/>
+      <c r="H5" s="66"/>
+      <c r="I5" s="67"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B6" s="41" t="s">
+      <c r="B6" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42" t="s">
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="42"/>
-      <c r="H6" s="42"/>
-      <c r="I6" s="50"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="53"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="43" t="s">
+      <c r="B7" s="46" t="s">
         <v>73</v>
       </c>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="51"/>
-      <c r="H7" s="51"/>
-      <c r="I7" s="52"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="55"/>
     </row>
     <row r="8" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="45"/>
-      <c r="C8" s="46"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="53"/>
-      <c r="G8" s="53"/>
-      <c r="H8" s="53"/>
-      <c r="I8" s="54"/>
+      <c r="B8" s="48"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="56"/>
+      <c r="G8" s="56"/>
+      <c r="H8" s="56"/>
+      <c r="I8" s="57"/>
     </row>
     <row r="9" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="14"/>
@@ -1695,14 +1695,14 @@
       <c r="H9" s="13"/>
       <c r="I9" s="13"/>
     </row>
-    <row r="10" spans="2:11" ht="39" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B10" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="40" t="s">
+      <c r="C10" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="40"/>
+      <c r="D10" s="43"/>
       <c r="E10" s="17" t="s">
         <v>10</v>
       </c>
@@ -1723,10 +1723,10 @@
       <c r="B11" s="19">
         <v>1</v>
       </c>
-      <c r="C11" s="76" t="s">
+      <c r="C11" s="68" t="s">
         <v>70</v>
       </c>
-      <c r="D11" s="77"/>
+      <c r="D11" s="69"/>
       <c r="E11" s="31" t="s">
         <v>78</v>
       </c>
@@ -1747,10 +1747,10 @@
       <c r="B12" s="30">
         <v>2</v>
       </c>
-      <c r="C12" s="76" t="s">
+      <c r="C12" s="68" t="s">
         <v>70</v>
       </c>
-      <c r="D12" s="77"/>
+      <c r="D12" s="69"/>
       <c r="E12" s="31" t="s">
         <v>79</v>
       </c>
@@ -1771,17 +1771,17 @@
       <c r="B13" s="30">
         <v>3</v>
       </c>
-      <c r="C13" s="76" t="s">
+      <c r="C13" s="68" t="s">
         <v>77</v>
       </c>
-      <c r="D13" s="77"/>
-      <c r="E13" s="79" t="s">
+      <c r="D13" s="69"/>
+      <c r="E13" s="38" t="s">
         <v>80</v>
       </c>
-      <c r="F13" s="79" t="s">
+      <c r="F13" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="G13" s="79" t="s">
+      <c r="G13" s="38" t="s">
         <v>82</v>
       </c>
       <c r="H13" s="31" t="s">
@@ -1790,23 +1790,23 @@
       <c r="I13" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="K13" s="81"/>
+      <c r="K13" s="40"/>
     </row>
     <row r="14" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B14" s="30">
         <v>4</v>
       </c>
-      <c r="C14" s="76" t="s">
+      <c r="C14" s="68" t="s">
         <v>93</v>
       </c>
-      <c r="D14" s="77"/>
-      <c r="E14" s="79" t="s">
+      <c r="D14" s="69"/>
+      <c r="E14" s="38" t="s">
         <v>94</v>
       </c>
-      <c r="F14" s="79" t="s">
+      <c r="F14" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="G14" s="79" t="s">
+      <c r="G14" s="38" t="s">
         <v>95</v>
       </c>
       <c r="H14" s="31" t="s">
@@ -1815,26 +1815,26 @@
       <c r="I14" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="K14" s="81"/>
+      <c r="K14" s="40"/>
     </row>
     <row r="15" spans="2:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="30">
         <v>5</v>
       </c>
-      <c r="C15" s="76" t="s">
+      <c r="C15" s="68" t="s">
         <v>83</v>
       </c>
-      <c r="D15" s="77"/>
-      <c r="E15" s="79" t="s">
+      <c r="D15" s="69"/>
+      <c r="E15" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="F15" s="79" t="s">
+      <c r="F15" s="38" t="s">
         <v>86</v>
       </c>
-      <c r="G15" s="79" t="s">
+      <c r="G15" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="H15" s="79" t="s">
+      <c r="H15" s="38" t="s">
         <v>91</v>
       </c>
       <c r="I15" s="32" t="s">
@@ -1845,20 +1845,20 @@
       <c r="B16" s="30">
         <v>6</v>
       </c>
-      <c r="C16" s="76" t="s">
+      <c r="C16" s="68" t="s">
         <v>88</v>
       </c>
-      <c r="D16" s="77"/>
-      <c r="E16" s="79" t="s">
+      <c r="D16" s="69"/>
+      <c r="E16" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="F16" s="79" t="s">
+      <c r="F16" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="G16" s="79" t="s">
+      <c r="G16" s="38" t="s">
         <v>90</v>
       </c>
-      <c r="H16" s="79" t="s">
+      <c r="H16" s="38" t="s">
         <v>92</v>
       </c>
       <c r="I16" s="32" t="s">
@@ -1869,80 +1869,80 @@
       <c r="B17" s="30">
         <v>7</v>
       </c>
-      <c r="C17" s="76"/>
-      <c r="D17" s="77"/>
-      <c r="E17" s="79"/>
-      <c r="F17" s="79"/>
-      <c r="G17" s="79"/>
-      <c r="H17" s="79"/>
+      <c r="C17" s="68"/>
+      <c r="D17" s="69"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="38"/>
       <c r="I17" s="32"/>
     </row>
     <row r="18" spans="2:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="30">
         <v>8</v>
       </c>
-      <c r="C18" s="76"/>
-      <c r="D18" s="77"/>
-      <c r="E18" s="79"/>
-      <c r="F18" s="79"/>
-      <c r="G18" s="79"/>
-      <c r="H18" s="79"/>
+      <c r="C18" s="68"/>
+      <c r="D18" s="69"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="38"/>
       <c r="I18" s="32"/>
     </row>
     <row r="19" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="30">
         <v>9</v>
       </c>
-      <c r="C19" s="76"/>
-      <c r="D19" s="77"/>
-      <c r="E19" s="79"/>
-      <c r="F19" s="79"/>
-      <c r="G19" s="79"/>
-      <c r="H19" s="79"/>
+      <c r="C19" s="68"/>
+      <c r="D19" s="69"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="38"/>
       <c r="I19" s="32"/>
     </row>
     <row r="20" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="30">
         <v>10</v>
       </c>
-      <c r="C20" s="76"/>
-      <c r="D20" s="77"/>
-      <c r="E20" s="79"/>
-      <c r="F20" s="79"/>
-      <c r="G20" s="79"/>
-      <c r="H20" s="79"/>
+      <c r="C20" s="68"/>
+      <c r="D20" s="69"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="38"/>
       <c r="I20" s="32"/>
     </row>
     <row r="21" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="30">
         <v>11</v>
       </c>
-      <c r="C21" s="76"/>
-      <c r="D21" s="77"/>
-      <c r="E21" s="79"/>
-      <c r="F21" s="79"/>
-      <c r="G21" s="79"/>
-      <c r="H21" s="79"/>
+      <c r="C21" s="68"/>
+      <c r="D21" s="69"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="38"/>
       <c r="I21" s="32"/>
     </row>
     <row r="22" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="30">
         <v>12</v>
       </c>
-      <c r="C22" s="76"/>
-      <c r="D22" s="77"/>
-      <c r="E22" s="80"/>
-      <c r="F22" s="79"/>
-      <c r="G22" s="79"/>
-      <c r="H22" s="79"/>
+      <c r="C22" s="68"/>
+      <c r="D22" s="69"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="38"/>
+      <c r="H22" s="38"/>
       <c r="I22" s="31"/>
     </row>
     <row r="23" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="30">
         <v>13</v>
       </c>
-      <c r="C23" s="76"/>
-      <c r="D23" s="77"/>
+      <c r="C23" s="68"/>
+      <c r="D23" s="69"/>
       <c r="E23" s="33"/>
       <c r="F23" s="31"/>
       <c r="G23" s="31"/>
@@ -1953,8 +1953,8 @@
       <c r="B24" s="30">
         <v>14</v>
       </c>
-      <c r="C24" s="76"/>
-      <c r="D24" s="77"/>
+      <c r="C24" s="68"/>
+      <c r="D24" s="69"/>
       <c r="E24" s="33"/>
       <c r="F24" s="31"/>
       <c r="G24" s="31"/>
@@ -1965,8 +1965,8 @@
       <c r="B25" s="30">
         <v>15</v>
       </c>
-      <c r="C25" s="76"/>
-      <c r="D25" s="77"/>
+      <c r="C25" s="68"/>
+      <c r="D25" s="69"/>
       <c r="E25" s="33"/>
       <c r="F25" s="31"/>
       <c r="G25" s="31"/>
@@ -1977,8 +1977,8 @@
       <c r="B26" s="30">
         <v>16</v>
       </c>
-      <c r="C26" s="76"/>
-      <c r="D26" s="77"/>
+      <c r="C26" s="68"/>
+      <c r="D26" s="69"/>
       <c r="E26" s="33"/>
       <c r="F26" s="31"/>
       <c r="G26" s="31"/>
@@ -1989,8 +1989,8 @@
       <c r="B27" s="30">
         <v>16</v>
       </c>
-      <c r="C27" s="78"/>
-      <c r="D27" s="75"/>
+      <c r="C27" s="70"/>
+      <c r="D27" s="71"/>
       <c r="E27" s="33"/>
       <c r="F27" s="31"/>
       <c r="G27" s="31"/>
@@ -2071,8 +2071,8 @@
     </row>
     <row r="35" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B35" s="21"/>
-      <c r="C35" s="38"/>
-      <c r="D35" s="39"/>
+      <c r="C35" s="41"/>
+      <c r="D35" s="42"/>
       <c r="E35" s="22"/>
       <c r="F35" s="22"/>
       <c r="G35" s="22"/>
@@ -2169,17 +2169,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:109" s="24" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="65" t="s">
+      <c r="B1" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
     </row>
     <row r="2" spans="2:109" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="B2" s="15" t="s">
@@ -2387,83 +2387,83 @@
   <sheetData>
     <row r="1" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8"/>
-      <c r="B1" s="68" t="s">
+      <c r="B1" s="75" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="8"/>
-      <c r="B2" s="67" t="s">
+      <c r="B2" s="74" t="s">
         <v>76</v>
       </c>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
     </row>
     <row r="3" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8"/>
-      <c r="B3" s="67"/>
-      <c r="C3" s="67"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="8"/>
-      <c r="B4" s="67"/>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="8"/>
-      <c r="B5" s="67"/>
-      <c r="C5" s="67"/>
-      <c r="D5" s="67"/>
-      <c r="E5" s="67"/>
+      <c r="B5" s="74"/>
+      <c r="C5" s="74"/>
+      <c r="D5" s="74"/>
+      <c r="E5" s="74"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="8"/>
     </row>
     <row r="7" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
-      <c r="B7" s="70" t="s">
+      <c r="B7" s="77" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="70"/>
-      <c r="D7" s="70"/>
-      <c r="E7" s="70"/>
+      <c r="C7" s="77"/>
+      <c r="D7" s="77"/>
+      <c r="E7" s="77"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="8"/>
-      <c r="B8" s="72" t="s">
+      <c r="B8" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="72"/>
-      <c r="D8" s="72"/>
-      <c r="E8" s="71" t="s">
+      <c r="C8" s="79"/>
+      <c r="D8" s="79"/>
+      <c r="E8" s="78" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="8"/>
-      <c r="B9" s="72" t="s">
+      <c r="B9" s="79" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="72"/>
-      <c r="D9" s="72"/>
-      <c r="E9" s="71"/>
+      <c r="C9" s="79"/>
+      <c r="D9" s="79"/>
+      <c r="E9" s="78"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
-      <c r="B10" s="66" t="s">
+      <c r="B10" s="73" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="66"/>
-      <c r="D10" s="66"/>
-      <c r="E10" s="71"/>
+      <c r="C10" s="73"/>
+      <c r="D10" s="73"/>
+      <c r="E10" s="78"/>
     </row>
     <row r="11" spans="1:5" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="27"/>
@@ -2474,30 +2474,30 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
-      <c r="B12" s="72"/>
-      <c r="C12" s="72"/>
-      <c r="D12" s="72"/>
-      <c r="E12" s="71" t="s">
+      <c r="B12" s="79"/>
+      <c r="C12" s="79"/>
+      <c r="D12" s="79"/>
+      <c r="E12" s="78" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="8"/>
-      <c r="B13" s="72" t="s">
+      <c r="B13" s="79" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="72"/>
-      <c r="D13" s="72"/>
-      <c r="E13" s="71"/>
+      <c r="C13" s="79"/>
+      <c r="D13" s="79"/>
+      <c r="E13" s="78"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="8"/>
-      <c r="B14" s="66" t="s">
+      <c r="B14" s="73" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="66"/>
-      <c r="D14" s="66"/>
-      <c r="E14" s="71"/>
+      <c r="C14" s="73"/>
+      <c r="D14" s="73"/>
+      <c r="E14" s="78"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="8"/>
@@ -2640,15 +2640,15 @@
       <c r="A1" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="73" t="s">
+      <c r="C1" s="80" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="73"/>
+      <c r="D1" s="80"/>
       <c r="E1" s="25"/>
-      <c r="F1" s="74" t="s">
+      <c r="F1" s="81" t="s">
         <v>38</v>
       </c>
-      <c r="G1" s="74"/>
+      <c r="G1" s="81"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
